--- a/braph2/workflows/Structural/example data ST (MRI)/xls/ST_group1.xlsx
+++ b/braph2/workflows/Structural/example data ST (MRI)/xls/ST_group1.xlsx
@@ -31,211 +31,211 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">'lh_superiorfrontal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_frontalpole_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_rostralmiddlefrontal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_caudalmiddlefrontal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_parsorbitalis_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_lateralorbitofrontal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_parstriangularis_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_parsopercularis_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_medialorbitofrontal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_rostralanteriorcingulate_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_caudalanteriorcingulate_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_insula_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_precentral_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_postcentral_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_supramarginal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_superiorparietal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_inferiorparietal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_paracentral_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_posteriorcingulate_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_isthmuscingulate_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_precuneus_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_cuneus_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_pericalcarine_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_lingual_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_lateraloccipital_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_transversetemporal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_bankssts_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_superiortemporal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_middletemporal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_inferiortemporal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_temporalpole_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_entorhinal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_parahippocampal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'lh_fusiform_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_superiorfrontal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_frontalpole_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_rostralmiddlefrontal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_caudalmiddlefrontal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_parsorbitalis_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_lateralorbitofrontal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_parstriangularis_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_parsopercularis_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_medialorbitofrontal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_rostralanteriorcingulate_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_caudalanteriorcingulate_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_insula_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_precentral_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_postcentral_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_supramarginal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_superiorparietal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_inferiorparietal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_paracentral_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_posteriorcingulate_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_isthmuscingulate_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_precuneus_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_cuneus_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_pericalcarine_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_lingual_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_lateraloccipital_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_transversetemporal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_bankssts_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_superiortemporal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_middletemporal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_inferiortemporal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_temporalpole_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_entorhinal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_parahippocampal_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'rh_fusiform_thickness'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'sub_1'</t>
+    <t xml:space="preserve">lh_superiorfrontal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_frontalpole_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_rostralmiddlefrontal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_caudalmiddlefrontal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_parsorbitalis_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_lateralorbitofrontal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_parstriangularis_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_parsopercularis_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_medialorbitofrontal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_rostralanteriorcingulate_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_caudalanteriorcingulate_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_insula_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_precentral_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_postcentral_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_supramarginal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_superiorparietal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_inferiorparietal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_paracentral_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_posteriorcingulate_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_isthmuscingulate_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_precuneus_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_cuneus_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_pericalcarine_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_lingual_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_lateraloccipital_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_transversetemporal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_bankssts_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_superiortemporal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_middletemporal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_inferiortemporal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_temporalpole_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_entorhinal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_parahippocampal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_fusiform_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_superiorfrontal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_frontalpole_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_rostralmiddlefrontal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_caudalmiddlefrontal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_parsorbitalis_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_lateralorbitofrontal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_parstriangularis_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_parsopercularis_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_medialorbitofrontal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_rostralanteriorcingulate_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_caudalanteriorcingulate_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_insula_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_precentral_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_postcentral_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_supramarginal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_superiorparietal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_inferiorparietal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_paracentral_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_posteriorcingulate_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_isthmuscingulate_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_precuneus_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_cuneus_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_pericalcarine_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_lingual_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_lateraloccipital_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_transversetemporal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_bankssts_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_superiortemporal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_middletemporal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_inferiortemporal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_temporalpole_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_entorhinal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_parahippocampal_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_fusiform_thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_1</t>
   </si>
   <si>
     <t xml:space="preserve">Label 1</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">Notes 1</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_2'</t>
+    <t xml:space="preserve">sub_2</t>
   </si>
   <si>
     <t xml:space="preserve">Label 2</t>
@@ -253,7 +253,7 @@
     <t xml:space="preserve">Notes 2</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_3'</t>
+    <t xml:space="preserve">sub_3</t>
   </si>
   <si>
     <t xml:space="preserve">Label 3</t>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">Notes 3</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_4'</t>
+    <t xml:space="preserve">sub_4</t>
   </si>
   <si>
     <t xml:space="preserve">Label 4</t>
@@ -271,7 +271,7 @@
     <t xml:space="preserve">Notes 4</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_5'</t>
+    <t xml:space="preserve">sub_5</t>
   </si>
   <si>
     <t xml:space="preserve">Label 5</t>
@@ -280,7 +280,7 @@
     <t xml:space="preserve">Notes 5</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_6'</t>
+    <t xml:space="preserve">sub_6</t>
   </si>
   <si>
     <t xml:space="preserve">Label 6</t>
@@ -289,7 +289,7 @@
     <t xml:space="preserve">Notes 6</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_7'</t>
+    <t xml:space="preserve">sub_7</t>
   </si>
   <si>
     <t xml:space="preserve">Label 7</t>
@@ -298,7 +298,7 @@
     <t xml:space="preserve">Notes 7</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_8'</t>
+    <t xml:space="preserve">sub_8</t>
   </si>
   <si>
     <t xml:space="preserve">Label 8</t>
@@ -307,7 +307,7 @@
     <t xml:space="preserve">Notes 8</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_9'</t>
+    <t xml:space="preserve">sub_9</t>
   </si>
   <si>
     <t xml:space="preserve">Label 9</t>
@@ -316,7 +316,7 @@
     <t xml:space="preserve">Notes 9</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_10'</t>
+    <t xml:space="preserve">sub_10</t>
   </si>
   <si>
     <t xml:space="preserve">Label 10</t>
@@ -325,7 +325,7 @@
     <t xml:space="preserve">Notes 10</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_11'</t>
+    <t xml:space="preserve">sub_11</t>
   </si>
   <si>
     <t xml:space="preserve">Label 11</t>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">Notes 11</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_12'</t>
+    <t xml:space="preserve">sub_12</t>
   </si>
   <si>
     <t xml:space="preserve">Label 12</t>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">Notes 12</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_13'</t>
+    <t xml:space="preserve">sub_13</t>
   </si>
   <si>
     <t xml:space="preserve">Label 13</t>
@@ -352,7 +352,7 @@
     <t xml:space="preserve">Notes 13</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_14'</t>
+    <t xml:space="preserve">sub_14</t>
   </si>
   <si>
     <t xml:space="preserve">Label 14</t>
@@ -361,7 +361,7 @@
     <t xml:space="preserve">Notes 14</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_15'</t>
+    <t xml:space="preserve">sub_15</t>
   </si>
   <si>
     <t xml:space="preserve">Label 15</t>
@@ -370,7 +370,7 @@
     <t xml:space="preserve">Notes 15</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_16'</t>
+    <t xml:space="preserve">sub_16</t>
   </si>
   <si>
     <t xml:space="preserve">Label 16</t>
@@ -379,7 +379,7 @@
     <t xml:space="preserve">Notes 16</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_17'</t>
+    <t xml:space="preserve">sub_17</t>
   </si>
   <si>
     <t xml:space="preserve">Label 17</t>
@@ -388,7 +388,7 @@
     <t xml:space="preserve">Notes 17</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_18'</t>
+    <t xml:space="preserve">sub_18</t>
   </si>
   <si>
     <t xml:space="preserve">Label 18</t>
@@ -397,7 +397,7 @@
     <t xml:space="preserve">Notes 18</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_19'</t>
+    <t xml:space="preserve">sub_19</t>
   </si>
   <si>
     <t xml:space="preserve">Label 19</t>
@@ -406,7 +406,7 @@
     <t xml:space="preserve">Notes 19</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_20'</t>
+    <t xml:space="preserve">sub_20</t>
   </si>
   <si>
     <t xml:space="preserve">Label 20</t>
@@ -415,7 +415,7 @@
     <t xml:space="preserve">Notes 20</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_21'</t>
+    <t xml:space="preserve">sub_21</t>
   </si>
   <si>
     <t xml:space="preserve">Label 21</t>
@@ -424,7 +424,7 @@
     <t xml:space="preserve">Notes 21</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_22'</t>
+    <t xml:space="preserve">sub_22</t>
   </si>
   <si>
     <t xml:space="preserve">Label 22</t>
@@ -433,7 +433,7 @@
     <t xml:space="preserve">Notes 22</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_23'</t>
+    <t xml:space="preserve">sub_23</t>
   </si>
   <si>
     <t xml:space="preserve">Label 23</t>
@@ -442,7 +442,7 @@
     <t xml:space="preserve">Notes 23</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_24'</t>
+    <t xml:space="preserve">sub_24</t>
   </si>
   <si>
     <t xml:space="preserve">Label 24</t>
@@ -451,7 +451,7 @@
     <t xml:space="preserve">Notes 24</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_25'</t>
+    <t xml:space="preserve">sub_25</t>
   </si>
   <si>
     <t xml:space="preserve">Label 25</t>
@@ -460,7 +460,7 @@
     <t xml:space="preserve">Notes 25</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_26'</t>
+    <t xml:space="preserve">sub_26</t>
   </si>
   <si>
     <t xml:space="preserve">Label 26</t>
@@ -469,7 +469,7 @@
     <t xml:space="preserve">Notes 26</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_27'</t>
+    <t xml:space="preserve">sub_27</t>
   </si>
   <si>
     <t xml:space="preserve">Label 27</t>
@@ -478,7 +478,7 @@
     <t xml:space="preserve">Notes 27</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_28'</t>
+    <t xml:space="preserve">sub_28</t>
   </si>
   <si>
     <t xml:space="preserve">Label 28</t>
@@ -487,7 +487,7 @@
     <t xml:space="preserve">Notes 28</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_29'</t>
+    <t xml:space="preserve">sub_29</t>
   </si>
   <si>
     <t xml:space="preserve">Label 29</t>
@@ -496,7 +496,7 @@
     <t xml:space="preserve">Notes 29</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_30'</t>
+    <t xml:space="preserve">sub_30</t>
   </si>
   <si>
     <t xml:space="preserve">Label 30</t>
@@ -505,7 +505,7 @@
     <t xml:space="preserve">Notes 30</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_31'</t>
+    <t xml:space="preserve">sub_31</t>
   </si>
   <si>
     <t xml:space="preserve">Label 31</t>
@@ -514,7 +514,7 @@
     <t xml:space="preserve">Notes 31</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_32'</t>
+    <t xml:space="preserve">sub_32</t>
   </si>
   <si>
     <t xml:space="preserve">Label 32</t>
@@ -523,7 +523,7 @@
     <t xml:space="preserve">Notes 32</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_33'</t>
+    <t xml:space="preserve">sub_33</t>
   </si>
   <si>
     <t xml:space="preserve">Label 33</t>
@@ -532,7 +532,7 @@
     <t xml:space="preserve">Notes 33</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_34'</t>
+    <t xml:space="preserve">sub_34</t>
   </si>
   <si>
     <t xml:space="preserve">Label 34</t>
@@ -541,7 +541,7 @@
     <t xml:space="preserve">Notes 34</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_35'</t>
+    <t xml:space="preserve">sub_35</t>
   </si>
   <si>
     <t xml:space="preserve">Label 35</t>
@@ -550,7 +550,7 @@
     <t xml:space="preserve">Notes 35</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_36'</t>
+    <t xml:space="preserve">sub_36</t>
   </si>
   <si>
     <t xml:space="preserve">Label 36</t>
@@ -559,7 +559,7 @@
     <t xml:space="preserve">Notes 36</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_37'</t>
+    <t xml:space="preserve">sub_37</t>
   </si>
   <si>
     <t xml:space="preserve">Label 37</t>
@@ -568,7 +568,7 @@
     <t xml:space="preserve">Notes 37</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_38'</t>
+    <t xml:space="preserve">sub_38</t>
   </si>
   <si>
     <t xml:space="preserve">Label 38</t>
@@ -577,7 +577,7 @@
     <t xml:space="preserve">Notes 38</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_39'</t>
+    <t xml:space="preserve">sub_39</t>
   </si>
   <si>
     <t xml:space="preserve">Label 39</t>
@@ -586,7 +586,7 @@
     <t xml:space="preserve">Notes 39</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_40'</t>
+    <t xml:space="preserve">sub_40</t>
   </si>
   <si>
     <t xml:space="preserve">Label 40</t>
@@ -595,7 +595,7 @@
     <t xml:space="preserve">Notes 40</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_41'</t>
+    <t xml:space="preserve">sub_41</t>
   </si>
   <si>
     <t xml:space="preserve">Label 41</t>
@@ -604,7 +604,7 @@
     <t xml:space="preserve">Notes 41</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_42'</t>
+    <t xml:space="preserve">sub_42</t>
   </si>
   <si>
     <t xml:space="preserve">Label 42</t>
@@ -613,7 +613,7 @@
     <t xml:space="preserve">Notes 42</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_43'</t>
+    <t xml:space="preserve">sub_43</t>
   </si>
   <si>
     <t xml:space="preserve">Label 43</t>
@@ -622,7 +622,7 @@
     <t xml:space="preserve">Notes 43</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_44'</t>
+    <t xml:space="preserve">sub_44</t>
   </si>
   <si>
     <t xml:space="preserve">Label 44</t>
@@ -631,7 +631,7 @@
     <t xml:space="preserve">Notes 44</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_45'</t>
+    <t xml:space="preserve">sub_45</t>
   </si>
   <si>
     <t xml:space="preserve">Label 45</t>
@@ -640,7 +640,7 @@
     <t xml:space="preserve">Notes 45</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_46'</t>
+    <t xml:space="preserve">sub_46</t>
   </si>
   <si>
     <t xml:space="preserve">Label 46</t>
@@ -649,7 +649,7 @@
     <t xml:space="preserve">Notes 46</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_47'</t>
+    <t xml:space="preserve">sub_47</t>
   </si>
   <si>
     <t xml:space="preserve">Label 47</t>
@@ -658,7 +658,7 @@
     <t xml:space="preserve">Notes 47</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_48'</t>
+    <t xml:space="preserve">sub_48</t>
   </si>
   <si>
     <t xml:space="preserve">Label 48</t>
@@ -667,7 +667,7 @@
     <t xml:space="preserve">Notes 48</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_49'</t>
+    <t xml:space="preserve">sub_49</t>
   </si>
   <si>
     <t xml:space="preserve">Label 49</t>
@@ -676,7 +676,7 @@
     <t xml:space="preserve">Notes 49</t>
   </si>
   <si>
-    <t xml:space="preserve">'sub_50'</t>
+    <t xml:space="preserve">sub_50</t>
   </si>
   <si>
     <t xml:space="preserve">Label 50</t>
@@ -787,17 +787,17 @@
   </sheetPr>
   <dimension ref="A1:BS51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51 D1:BS1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="27.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.14"/>
   </cols>
   <sheetData>
